--- a/WELDER/Project Outputs for PCB_Project/BOM/BOM-WELDER.xlsx
+++ b/WELDER/Project Outputs for PCB_Project/BOM/BOM-WELDER.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM-WELDER'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -1457,7 +1457,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1478,7 +1478,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1499,6 +1499,6 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>